--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50元京东卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金吊坠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,39 +155,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>30元电话卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1进包裹2加金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>200金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30元电话卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PushBag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1进包裹2加金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具id</t>
+    <t>600金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +621,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,7 +644,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>21</v>
@@ -653,10 +653,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -710,10 +710,10 @@
         <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -721,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D5" s="5">
         <v>6003</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <v>1000</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5">
         <v>500</v>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>2000</v>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
         <v>5000</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -991,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D15" s="5">
         <v>6003</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="5">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D17" s="5">
         <v>6003</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5">
         <v>500</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="5">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1180,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D22" s="5">
         <v>6003</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="5">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,10 @@
   </si>
   <si>
     <t>400金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +621,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -667,10 +667,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5">
         <v>500</v>
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5">
         <v>400</v>
@@ -1045,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>200</v>
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5">
         <v>500</v>
@@ -1180,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5">
         <v>400</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -621,7 +621,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,7 +832,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D9" s="5">
         <v>6003</v>
@@ -1156,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D21" s="5">
         <v>6003</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -621,7 +621,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="5">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -621,7 +621,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -730,8 +730,8 @@
         <v>6003</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f>"item/"&amp;TEXT(D5,0)</f>
-        <v>item/6003</v>
+        <f>"item_json."&amp;TEXT(D5,0)</f>
+        <v>item_json.6003</v>
       </c>
       <c r="F5" s="8">
         <v>1334</v>
@@ -757,8 +757,8 @@
         <v>2006</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f t="shared" ref="E6:E16" si="0">"item/"&amp;TEXT(D6,0)</f>
-        <v>item/2006</v>
+        <f t="shared" ref="E6:E22" si="0">"item_json."&amp;TEXT(D6,0)</f>
+        <v>item_json.2006</v>
       </c>
       <c r="F6" s="8">
         <v>50</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/5004</v>
+        <v>item_json.5004</v>
       </c>
       <c r="F7" s="8">
         <v>100</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6003</v>
+        <v>item_json.6003</v>
       </c>
       <c r="F8" s="8">
         <v>1000</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6003</v>
+        <v>item_json.6003</v>
       </c>
       <c r="F9" s="8">
         <v>1000</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/3018</v>
+        <v>item_json.3018</v>
       </c>
       <c r="F10" s="8">
         <v>5</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6003</v>
+        <v>item_json.6003</v>
       </c>
       <c r="F11" s="8">
         <v>350</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/2004</v>
+        <v>item_json.2004</v>
       </c>
       <c r="F12" s="8">
         <v>10</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6003</v>
+        <v>item_json.6003</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/1001</v>
+        <v>item_json.1001</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/6003</v>
+        <v>item_json.6003</v>
       </c>
       <c r="F15" s="8">
         <v>1200</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item/5003</v>
+        <v>item_json.5003</v>
       </c>
       <c r="F16" s="8">
         <v>100</v>
@@ -1054,8 +1054,8 @@
         <v>6003</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>"item/"&amp;TEXT(D17,0)</f>
-        <v>item/6003</v>
+        <f t="shared" si="0"/>
+        <v>item_json.6003</v>
       </c>
       <c r="F17" s="8">
         <v>1300</v>
@@ -1081,8 +1081,8 @@
         <v>2006</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f t="shared" ref="E18:E22" si="1">"item/"&amp;TEXT(D18,0)</f>
-        <v>item/2006</v>
+        <f t="shared" si="0"/>
+        <v>item_json.2006</v>
       </c>
       <c r="F18" s="8">
         <v>50</v>
@@ -1108,8 +1108,8 @@
         <v>5004</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>item/5004</v>
+        <f t="shared" si="0"/>
+        <v>item_json.5004</v>
       </c>
       <c r="F19" s="8">
         <v>100</v>
@@ -1135,8 +1135,8 @@
         <v>6003</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>item/6003</v>
+        <f t="shared" si="0"/>
+        <v>item_json.6003</v>
       </c>
       <c r="F20" s="8">
         <v>1000</v>
@@ -1162,8 +1162,8 @@
         <v>6003</v>
       </c>
       <c r="E21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>item/6003</v>
+        <f t="shared" si="0"/>
+        <v>item_json.6003</v>
       </c>
       <c r="F21" s="8">
         <v>1000</v>
@@ -1189,8 +1189,8 @@
         <v>6003</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>item/6003</v>
+        <f t="shared" si="0"/>
+        <v>item_json.6003</v>
       </c>
       <c r="F22" s="8">
         <v>1200</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -135,23 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金吊坠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2000金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200元京东卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5000金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +632,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>21</v>
@@ -653,10 +641,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -667,10 +655,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -701,7 +689,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -710,10 +698,10 @@
         <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -721,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -829,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <v>600</v>
@@ -856,17 +844,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="5">
-        <v>3018</v>
+        <v>6003</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.3018</v>
+        <f t="shared" ref="E10" si="1">"item_json."&amp;TEXT(D10,0)</f>
+        <v>item_json.6003</v>
       </c>
       <c r="F10" s="8">
         <v>5</v>
@@ -883,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>2000</v>
@@ -910,17 +898,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D12" s="5">
-        <v>2004</v>
+        <v>6003</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.2004</v>
+        <f t="shared" ref="E12" si="2">"item_json."&amp;TEXT(D12,0)</f>
+        <v>item_json.6003</v>
       </c>
       <c r="F12" s="8">
         <v>10</v>
@@ -937,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>5000</v>
@@ -964,17 +952,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="D14" s="5">
-        <v>1001</v>
+        <v>6003</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.1001</v>
+        <f t="shared" ref="E14" si="3">"item_json."&amp;TEXT(D14,0)</f>
+        <v>item_json.6003</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -991,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5">
         <v>400</v>
@@ -1018,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1045,7 +1033,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>200</v>
@@ -1153,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5">
         <v>600</v>
@@ -1180,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
         <v>400</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -184,6 +184,22 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +625,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -619,6 +635,7 @@
     <col min="3" max="3" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,17 +807,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>item_json.6002</v>
       </c>
       <c r="F8" s="8">
         <v>1000</v>
@@ -817,17 +834,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>item_json.6002</v>
       </c>
       <c r="F9" s="8">
         <v>1000</v>
@@ -1033,17 +1050,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>item_json.6002</v>
       </c>
       <c r="F17" s="8">
         <v>1300</v>
@@ -1168,17 +1185,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>item_json.6002</v>
       </c>
       <c r="F22" s="8">
         <v>1200</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -201,6 +201,21 @@
   <si>
     <t>60钻石</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_json.6003</t>
+  </si>
+  <si>
+    <t>item_json.2006</t>
+  </si>
+  <si>
+    <t>item_json.5004</t>
+  </si>
+  <si>
+    <t>item_json.6002</t>
+  </si>
+  <si>
+    <t>item_json.5003</t>
   </si>
 </sst>
 </file>
@@ -625,7 +640,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -732,11 +747,10 @@
         <v>200</v>
       </c>
       <c r="D5" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>"item_json."&amp;TEXT(D5,0)</f>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="8">
         <v>1334</v>
@@ -759,11 +773,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>2006</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" ref="E6:E22" si="0">"item_json."&amp;TEXT(D6,0)</f>
-        <v>item_json.2006</v>
+        <v>20006</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
       </c>
       <c r="F6" s="8">
         <v>50</v>
@@ -786,11 +799,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>5004</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.5004</v>
+        <v>50004</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="8">
         <v>100</v>
@@ -813,11 +825,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="5">
-        <v>6002</v>
-      </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6002</v>
+        <v>60002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="8">
         <v>1000</v>
@@ -840,11 +851,10 @@
         <v>60</v>
       </c>
       <c r="D9" s="5">
-        <v>6002</v>
-      </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6002</v>
+        <v>60002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
       </c>
       <c r="F9" s="8">
         <v>1000</v>
@@ -867,11 +877,10 @@
         <v>1000</v>
       </c>
       <c r="D10" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" ref="E10" si="1">"item_json."&amp;TEXT(D10,0)</f>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="8">
         <v>5</v>
@@ -894,11 +903,10 @@
         <v>2000</v>
       </c>
       <c r="D11" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
       </c>
       <c r="F11" s="8">
         <v>350</v>
@@ -921,11 +929,10 @@
         <v>600</v>
       </c>
       <c r="D12" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" ref="E12" si="2">"item_json."&amp;TEXT(D12,0)</f>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
       <c r="F12" s="8">
         <v>10</v>
@@ -948,11 +955,10 @@
         <v>5000</v>
       </c>
       <c r="D13" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
@@ -975,11 +981,10 @@
         <v>600</v>
       </c>
       <c r="D14" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" ref="E14" si="3">"item_json."&amp;TEXT(D14,0)</f>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -1002,11 +1007,10 @@
         <v>400</v>
       </c>
       <c r="D15" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="8">
         <v>1200</v>
@@ -1029,11 +1033,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>5003</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.5003</v>
+        <v>50003</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
       </c>
       <c r="F16" s="8">
         <v>100</v>
@@ -1056,11 +1059,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="5">
-        <v>6002</v>
-      </c>
-      <c r="E17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6002</v>
+        <v>60002</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="8">
         <v>1300</v>
@@ -1083,11 +1085,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>2006</v>
-      </c>
-      <c r="E18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.2006</v>
+        <v>20006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="8">
         <v>50</v>
@@ -1110,11 +1111,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>5004</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.5004</v>
+        <v>50004</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
       </c>
       <c r="F19" s="8">
         <v>100</v>
@@ -1137,11 +1137,10 @@
         <v>1000</v>
       </c>
       <c r="D20" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="8">
         <v>1000</v>
@@ -1164,11 +1163,10 @@
         <v>600</v>
       </c>
       <c r="D21" s="5">
-        <v>6003</v>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6003</v>
+        <v>60003</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
       </c>
       <c r="F21" s="8">
         <v>1000</v>
@@ -1191,11 +1189,10 @@
         <v>40</v>
       </c>
       <c r="D22" s="5">
-        <v>6002</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.6002</v>
+        <v>60002</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
       </c>
       <c r="F22" s="8">
         <v>1200</v>

--- a/docs/excel/TBallGift.xlsx
+++ b/docs/excel/TBallGift.xlsx
@@ -71,10 +71,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +212,10 @@
   </si>
   <si>
     <t>item_json.5003</t>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,51 +658,51 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -712,28 +712,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
@@ -750,7 +750,7 @@
         <v>60003</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8">
         <v>1334</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>20006</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="8">
         <v>50</v>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>50004</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8">
         <v>100</v>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5">
         <v>100</v>
@@ -828,7 +828,7 @@
         <v>60002</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="8">
         <v>1000</v>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5">
         <v>60</v>
@@ -854,7 +854,7 @@
         <v>60002</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="8">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>1000</v>
@@ -880,7 +880,7 @@
         <v>60003</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8">
         <v>5</v>
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>2000</v>
@@ -906,7 +906,7 @@
         <v>60003</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="8">
         <v>350</v>
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5">
         <v>600</v>
@@ -932,7 +932,7 @@
         <v>60003</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="8">
         <v>10</v>
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>5000</v>
@@ -958,7 +958,7 @@
         <v>60003</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8">
         <v>200</v>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5">
         <v>600</v>
@@ -984,7 +984,7 @@
         <v>60003</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <v>400</v>
@@ -1010,7 +1010,7 @@
         <v>60003</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="8">
         <v>1200</v>
@@ -1027,7 +1027,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>50003</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="8">
         <v>100</v>
@@ -1053,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5">
         <v>20</v>
@@ -1062,7 +1062,7 @@
         <v>60002</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="8">
         <v>1300</v>
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>20006</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8">
         <v>50</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>50004</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="8">
         <v>100</v>
@@ -1131,7 +1131,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5">
         <v>1000</v>
@@ -1140,7 +1140,7 @@
         <v>60003</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="8">
         <v>1000</v>
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5">
         <v>600</v>
@@ -1166,7 +1166,7 @@
         <v>60003</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="8">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <v>40</v>
@@ -1192,7 +1192,7 @@
         <v>60002</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="8">
         <v>1200</v>
@@ -1317,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
